--- a/raw data/API_documents/40_API_documentations/data/filter_labeled_API/applovin.xlsx
+++ b/raw data/API_documents/40_API_documentations/data/filter_labeled_API/applovin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>class_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>com.applovin.sdk.AppLovinAdType</t>
   </si>
   <si>
-    <t>com.applovin.adview.AppLovinAdViewDisplayErrorCode</t>
-  </si>
-  <si>
     <t>com.applovin.communicator.AppLovinCommunicatorMessage</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>com.applovin.sdk.AppLovinSdk</t>
-  </si>
-  <si>
-    <t>com.applovin.sdk.AppLovinSdkConfiguration.ConsentDialogState</t>
   </si>
   <si>
     <t>com.applovin.sdk.AppLovinVariableService</t>
@@ -89,10 +83,6 @@
     <t>This class defines a categorization of the behavior of an ad.</t>
   </si>
   <si>
-    <t>This enum contains possible error codes that should be returned when the ad view fails to display an ad.
- Created by thomasso on 7/5/17.</t>
-  </si>
-  <si>
     <t>Created by Thomas So on July 22 2019
  Class representing messages passed in the Communicator SDK.</t>
   </si>
@@ -106,10 +96,6 @@
     <t>This is the base class for AppLovin SDK.</t>
   </si>
   <si>
-    <t>This enum represents whether or not the consent dialog should be shown for this user.
- The state where no such determination could be made is represented by UNKNOWN.</t>
-  </si>
-  <si>
     <t>Created by Thomas So on October 06 2018
  This service allows for retrieval of variables pre-defined on AppLovin's dashboard.</t>
   </si>
@@ -126,12 +112,6 @@
     <t>getLabel()</t>
   </si>
   <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>valueOf(java.lang.String name)</t>
-  </si>
-  <si>
     <t>getMessageData()</t>
   </si>
   <si>
@@ -172,13 +152,7 @@
     <t>Get a name of the ad size</t>
   </si>
   <si>
-    <t>Simply calls getLabel().</t>
-  </si>
-  <si>
     <t>Generate a String which contains the name of this ad type.</t>
-  </si>
-  <si>
-    <t>Returns the enum constant of this type with the specified name.</t>
   </si>
   <si>
     <t>Get the raw data of the message.</t>
@@ -223,18 +197,9 @@
     <t>java.lang.String</t>
   </si>
   <si>
-    <t>static AppLovinAdViewDisplayErrorCode</t>
-  </si>
-  <si>
     <t>android.os.Bundle</t>
   </si>
   <si>
-    <t>static AppLovinSdkConfiguration.ConsentDialogState</t>
-  </si>
-  <si>
-    <t>Simply calls get label().</t>
-  </si>
-  <si>
     <t>Deprecated. Please use app lovin sdk.get user identifier() instead to properly identify your users in our system. This property is now deprecated and will be removed in a future SDK version.</t>
   </si>
   <si>
@@ -259,13 +224,7 @@
     <t>{'a name'}</t>
   </si>
   <si>
-    <t>{'label', 'get', 'calls'}</t>
-  </si>
-  <si>
     <t>{'the name'}</t>
-  </si>
-  <si>
-    <t>{'the specified name'}</t>
   </si>
   <si>
     <t>{'the raw data'}</t>
@@ -647,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -684,25 +643,25 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -710,25 +669,25 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -736,181 +695,181 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -918,25 +877,25 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -944,207 +903,103 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
